--- a/data_kai_2011_2020.xlsx
+++ b/data_kai_2011_2020.xlsx
@@ -1,35 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38595E5-DC4A-451D-A5F0-76948205DB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Tanggal</t>
   </si>
   <si>
     <t>Jumlah</t>
   </si>
+  <si>
+    <t>9.27</t>
+  </si>
+  <si>
+    <t>9.84</t>
+  </si>
+  <si>
+    <t>10.65</t>
+  </si>
+  <si>
+    <t>11.24</t>
+  </si>
+  <si>
+    <t>20.08</t>
+  </si>
+  <si>
+    <t>17.64</t>
+  </si>
+  <si>
+    <t>21.29</t>
+  </si>
+  <si>
+    <t>23.57</t>
+  </si>
+  <si>
+    <t>28.86</t>
+  </si>
+  <si>
+    <t>11.33</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,18 +117,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -139,7 +184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -171,9 +216,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,6 +268,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -380,14 +461,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -395,964 +478,964 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>40544</v>
       </c>
-      <c r="B2">
-        <v>10.354</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="3">
+        <v>10354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>40575</v>
       </c>
-      <c r="B3">
-        <v>9.27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>40603</v>
       </c>
-      <c r="B4">
-        <v>10.733</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="3">
+        <v>10733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>40634</v>
       </c>
-      <c r="B5">
-        <v>10.188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" s="3">
+        <v>10188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>40664</v>
       </c>
-      <c r="B6">
-        <v>10.513</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" s="3">
+        <v>10513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>40695</v>
       </c>
-      <c r="B7">
-        <v>10.147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7" s="3">
+        <v>10147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>40725</v>
       </c>
-      <c r="B8">
-        <v>10.749</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8" s="3">
+        <v>10749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>40756</v>
       </c>
-      <c r="B9">
-        <v>9.678000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9" s="3">
+        <v>9678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>40787</v>
       </c>
-      <c r="B10">
-        <v>9.692</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" s="3">
+        <v>9692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>40817</v>
       </c>
-      <c r="B11">
-        <v>10.152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11" s="3">
+        <v>10152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>40848</v>
       </c>
-      <c r="B12">
-        <v>9.852</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12" s="3">
+        <v>9852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>40878</v>
       </c>
-      <c r="B13">
-        <v>9.776999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" s="3">
+        <v>9777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>40909</v>
       </c>
-      <c r="B14">
-        <v>9.779</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" s="3">
+        <v>9779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>40940</v>
       </c>
-      <c r="B15">
-        <v>9.84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>40969</v>
       </c>
-      <c r="B16">
-        <v>11.285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B16" s="3">
+        <v>11285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>41000</v>
       </c>
-      <c r="B17">
-        <v>11.271</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="B17" s="3">
+        <v>11271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>41030</v>
       </c>
-      <c r="B18">
-        <v>11.872</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="B18" s="3">
+        <v>11872</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>41061</v>
       </c>
-      <c r="B19">
-        <v>12.034</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="B19" s="3">
+        <v>12034</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>41091</v>
       </c>
-      <c r="B20">
-        <v>12.391</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="B20" s="3">
+        <v>12391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>41122</v>
       </c>
-      <c r="B21">
-        <v>11.471</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="B21" s="3">
+        <v>11471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>41153</v>
       </c>
-      <c r="B22">
-        <v>11.556</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="B22" s="3">
+        <v>11556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>41183</v>
       </c>
-      <c r="B23">
-        <v>11.501</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="B23" s="3">
+        <v>11501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>41214</v>
       </c>
-      <c r="B24">
-        <v>10.65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>41244</v>
       </c>
-      <c r="B25">
-        <v>10.438</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="B25" s="3">
+        <v>10438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>41275</v>
       </c>
-      <c r="B26">
-        <v>10.089</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="B26" s="3">
+        <v>10089</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>41306</v>
       </c>
-      <c r="B27">
-        <v>10.281</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="B27" s="3">
+        <v>10281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>41334</v>
       </c>
-      <c r="B28">
-        <v>11.24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>41365</v>
       </c>
-      <c r="B29">
-        <v>11.529</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="B29" s="3">
+        <v>11529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>41395</v>
       </c>
-      <c r="B30">
-        <v>11.767</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="B30" s="3">
+        <v>11767</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>41426</v>
       </c>
-      <c r="B31">
-        <v>11.817</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="B31" s="3">
+        <v>11817</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>41456</v>
       </c>
-      <c r="B32">
-        <v>15.407</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="B32" s="3">
+        <v>15407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>41487</v>
       </c>
-      <c r="B33">
-        <v>14.321</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="B33" s="3">
+        <v>14321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>41518</v>
       </c>
-      <c r="B34">
-        <v>15.113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="B34" s="3">
+        <v>15113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>41548</v>
       </c>
-      <c r="B35">
-        <v>15.531</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="B35" s="3">
+        <v>15531</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>41579</v>
       </c>
-      <c r="B36">
-        <v>15.487</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="B36" s="3">
+        <v>15487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>41609</v>
       </c>
-      <c r="B37">
-        <v>15.901</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="B37" s="3">
+        <v>15901</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>41640</v>
       </c>
-      <c r="B38">
-        <v>15.176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="B38" s="3">
+        <v>15176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>41671</v>
       </c>
-      <c r="B39">
-        <v>14.856</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="B39" s="3">
+        <v>14856</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>41699</v>
       </c>
-      <c r="B40">
-        <v>17.471</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="B40" s="3">
+        <v>17471</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>41730</v>
       </c>
-      <c r="B41">
-        <v>16.671</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="B41" s="3">
+        <v>16671</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41760</v>
       </c>
-      <c r="B42">
-        <v>16.781</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="B42" s="3">
+        <v>16781</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41791</v>
       </c>
-      <c r="B43">
-        <v>17.848</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="B43" s="3">
+        <v>17848</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41821</v>
       </c>
-      <c r="B44">
-        <v>16.585</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="B44" s="3">
+        <v>16585</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>41852</v>
       </c>
-      <c r="B45">
-        <v>17.091</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="B45" s="3">
+        <v>17091</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>41883</v>
       </c>
-      <c r="B46">
-        <v>18.253</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="B46" s="3">
+        <v>18253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>41913</v>
       </c>
-      <c r="B47">
-        <v>19.079</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="B47" s="3">
+        <v>19079</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>41944</v>
       </c>
-      <c r="B48">
-        <v>18.605</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="B48" s="3">
+        <v>18605</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>41974</v>
       </c>
-      <c r="B49">
-        <v>20.08</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>42005</v>
       </c>
-      <c r="B50">
-        <v>19.244</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="B50" s="3">
+        <v>19244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>42036</v>
       </c>
-      <c r="B51">
-        <v>17.64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>42064</v>
       </c>
-      <c r="B52">
-        <v>21.29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>42095</v>
       </c>
-      <c r="B53">
-        <v>21.171</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="B53" s="3">
+        <v>21171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>42125</v>
       </c>
-      <c r="B54">
-        <v>22.177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="B54" s="3">
+        <v>22177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>42156</v>
       </c>
-      <c r="B55">
-        <v>22.207</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="B55" s="3">
+        <v>22207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>42186</v>
       </c>
-      <c r="B56">
-        <v>21.171</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="B56" s="3">
+        <v>21171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>42217</v>
       </c>
-      <c r="B57">
-        <v>22.295</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="B57" s="3">
+        <v>22295</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>42248</v>
       </c>
-      <c r="B58">
-        <v>22.021</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="B58" s="3">
+        <v>22021</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>42278</v>
       </c>
-      <c r="B59">
-        <v>22.964</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="B59" s="3">
+        <v>22964</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>42309</v>
       </c>
-      <c r="B60">
-        <v>22.355</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="B60" s="3">
+        <v>22355</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>42339</v>
       </c>
-      <c r="B61">
-        <v>22.996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="B61" s="3">
+        <v>22996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>42370</v>
       </c>
-      <c r="B62">
-        <v>22.238</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="B62" s="3">
+        <v>22238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>42401</v>
       </c>
-      <c r="B63">
-        <v>21.229</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="B63" s="3">
+        <v>21229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>42430</v>
       </c>
-      <c r="B64">
-        <v>23.206</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="B64" s="3">
+        <v>23206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>42461</v>
       </c>
-      <c r="B65">
-        <v>23.149</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="B65" s="3">
+        <v>23149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>42491</v>
       </c>
-      <c r="B66">
-        <v>24.401</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="B66" s="3">
+        <v>24401</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>42522</v>
       </c>
-      <c r="B67">
-        <v>23.821</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="B67" s="3">
+        <v>23821</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
-      <c r="B68">
-        <v>21.574</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="B68" s="3">
+        <v>21574</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>42583</v>
       </c>
-      <c r="B69">
-        <v>23.923</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="B69" s="3">
+        <v>23923</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>42614</v>
       </c>
-      <c r="B70">
-        <v>23.57</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>42644</v>
       </c>
-      <c r="B71">
-        <v>24.533</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="B71" s="3">
+        <v>24533</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>42675</v>
       </c>
-      <c r="B72">
-        <v>24.104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="B72" s="3">
+        <v>24104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>42705</v>
       </c>
-      <c r="B73">
-        <v>24.841</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="B73" s="3">
+        <v>24841</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>42736</v>
       </c>
-      <c r="B74">
-        <v>24.185</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="B74" s="3">
+        <v>24185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>42767</v>
       </c>
-      <c r="B75">
-        <v>21.743</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="B75" s="3">
+        <v>21743</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>42795</v>
       </c>
-      <c r="B76">
-        <v>25.775</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="B76" s="3">
+        <v>25775</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>42826</v>
       </c>
-      <c r="B77">
-        <v>25.411</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="B77" s="3">
+        <v>25411</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>42856</v>
       </c>
-      <c r="B78">
-        <v>27.385</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="B78" s="3">
+        <v>27385</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>42887</v>
       </c>
-      <c r="B79">
-        <v>24.432</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="B79" s="3">
+        <v>24432</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>42917</v>
       </c>
-      <c r="B80">
-        <v>27.016</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="B80" s="3">
+        <v>27016</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>42948</v>
       </c>
-      <c r="B81">
-        <v>27.679</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="B81" s="3">
+        <v>27679</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>42979</v>
       </c>
-      <c r="B82">
-        <v>26.158</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="B82" s="3">
+        <v>26158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43009</v>
       </c>
-      <c r="B83">
-        <v>28.765</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="B83" s="3">
+        <v>28765</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43040</v>
       </c>
-      <c r="B84">
-        <v>28.246</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="B84" s="3">
+        <v>28246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>43070</v>
       </c>
-      <c r="B85">
-        <v>29.059</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="B85" s="3">
+        <v>29059</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>43101</v>
       </c>
-      <c r="B86">
-        <v>28.075</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="B86" s="3">
+        <v>28075</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>43132</v>
       </c>
-      <c r="B87">
-        <v>25.362</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="B87" s="3">
+        <v>25362</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>43160</v>
       </c>
-      <c r="B88">
-        <v>29.223</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="B88" s="3">
+        <v>29223</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43191</v>
       </c>
-      <c r="B89">
-        <v>28.942</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="B89" s="3">
+        <v>28942</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>43221</v>
       </c>
-      <c r="B90">
-        <v>28.995</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="B90" s="3">
+        <v>28995</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>43252</v>
       </c>
-      <c r="B91">
-        <v>24.833</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="B91" s="3">
+        <v>24833</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>43282</v>
       </c>
-      <c r="B92">
-        <v>29.086</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="B92" s="3">
+        <v>29086</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>43313</v>
       </c>
-      <c r="B93">
-        <v>28.098</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="B93" s="3">
+        <v>28098</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>43344</v>
       </c>
-      <c r="B94">
-        <v>27.618</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="B94" s="3">
+        <v>27618</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>43374</v>
       </c>
-      <c r="B95">
-        <v>29.317</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="B95" s="3">
+        <v>29317</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>43405</v>
       </c>
-      <c r="B96">
-        <v>28.049</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="B96" s="3">
+        <v>28049</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>43435</v>
       </c>
-      <c r="B97">
-        <v>29.201</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="B97" s="3">
+        <v>29201</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>43466</v>
       </c>
-      <c r="B98">
-        <v>27.768</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="B98" s="3">
+        <v>27768</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>43497</v>
       </c>
-      <c r="B99">
-        <v>25.305</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="B99" s="3">
+        <v>25305</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>43525</v>
       </c>
-      <c r="B100">
-        <v>28.366</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="B100" s="3">
+        <v>28366</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>43556</v>
       </c>
-      <c r="B101">
-        <v>28.062</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="B101" s="3">
+        <v>28062</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>43586</v>
       </c>
-      <c r="B102">
-        <v>28.369</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="B102" s="3">
+        <v>28369</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>43617</v>
       </c>
-      <c r="B103">
-        <v>25.816</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="B103" s="3">
+        <v>25816</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>43647</v>
       </c>
-      <c r="B104">
-        <v>29.714</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="B104" s="3">
+        <v>29714</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>43678</v>
       </c>
-      <c r="B105">
-        <v>27.651</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="B105" s="3">
+        <v>27651</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>43709</v>
       </c>
-      <c r="B106">
-        <v>28.293</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="B106" s="3">
+        <v>28293</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>43739</v>
       </c>
-      <c r="B107">
-        <v>29.278</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="B107" s="3">
+        <v>29278</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>43770</v>
       </c>
-      <c r="B108">
-        <v>28.563</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="B108" s="3">
+        <v>28563</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>43800</v>
       </c>
-      <c r="B109">
-        <v>28.86</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>43831</v>
       </c>
-      <c r="B110">
-        <v>26.733</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="B110" s="3">
+        <v>26733</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>43862</v>
       </c>
-      <c r="B111">
-        <v>25.616</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="B111" s="3">
+        <v>25616</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>43891</v>
       </c>
-      <c r="B112">
-        <v>18.548</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="B112" s="3">
+        <v>18548</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>43922</v>
       </c>
-      <c r="B113">
-        <v>5.138</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="B113" s="3">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>43952</v>
       </c>
-      <c r="B114">
-        <v>5.077</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="B114" s="3">
+        <v>5077</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>43983</v>
       </c>
-      <c r="B115">
-        <v>8.590999999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="B115" s="3">
+        <v>8591</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>44013</v>
       </c>
-      <c r="B116">
-        <v>11.116</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="B116" s="3">
+        <v>11116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>44044</v>
       </c>
-      <c r="B117">
-        <v>11.014</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="B117" s="3">
+        <v>11014</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>44075</v>
       </c>
-      <c r="B118">
-        <v>9.678000000000001</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="B118" s="3">
+        <v>9678</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>44105</v>
       </c>
-      <c r="B119">
-        <v>10.128</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="B119" s="3">
+        <v>10128</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>44136</v>
       </c>
-      <c r="B120">
-        <v>11.622</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="B120" s="3">
+        <v>11622</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>44166</v>
       </c>
-      <c r="B121">
-        <v>11.33</v>
+      <c r="B121" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
